--- a/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
@@ -6,36 +6,45 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AAPL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AAPL1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAYRY" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AAPL2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAYRY1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VAR1.DE3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fbfce1"/>
+        <bgColor rgb="00fbfce1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +52,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -358,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -366,9 +386,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="65" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,7 +402,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>VAR1.DE</t>
         </is>
       </c>
     </row>
@@ -391,7 +414,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SP500</t>
+          <t>SDAX</t>
         </is>
       </c>
     </row>
@@ -401,73 +424,464 @@
           <t>MarketCap</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[1560.0, 1100.0, 1290.0, 995150000.0, 910640000.0, 895670000.0]</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3790000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Cap</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Finance Stock</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1 - Return on Equity RoE</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>62.09</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 - Ebit-Margin</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="C7" t="n">
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Levermann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3 - Equity Ratio</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>26.73</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4 - P/E-Ratio History</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="C9" t="n">
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>61.99</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>60.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-24.84</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>66.51000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Summe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Levermann-Score</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -488,14 +902,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -507,7 +920,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
@@ -530,7 +943,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1560000000</v>
+        <v>214460000</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -607,10 +1020,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>62.09</v>
+        <v>9.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -640,10 +1053,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>26.24</v>
+        <v>19.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +1086,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>26.73</v>
+        <v>10.88</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -706,10 +1119,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14.63</v>
+        <v>13617.01</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -739,10 +1152,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28.66</v>
+        <v>9.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -805,10 +1218,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -838,7 +1251,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-3.76</v>
+        <v>-28.3</v>
       </c>
       <c r="G15" t="n">
         <v>-1</v>
@@ -871,10 +1284,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19.96</v>
+        <v>-28.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -894,10 +1307,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73.52</v>
+        <v>-13.38</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -967,10 +1380,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19.94</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -985,7 +1398,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -1010,67 +1423,67 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>BAYRY</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAX</t>
+          <t>SP500</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MarketCap</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76430000</v>
+        <v>214460000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Cap</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SmallCap</t>
+          <t>MidCap</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Finance Stock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1537,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.52</v>
+        <v>9.07</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
@@ -1156,11 +1569,13 @@
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>12.06</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1190,7 +1605,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37.49</v>
+        <v>10.88</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1223,10 +1638,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>24.88</v>
+        <v>10.92</v>
       </c>
       <c r="G11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1256,7 +1671,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.42</v>
+        <v>9.41</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1322,10 +1737,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.1</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1355,10 +1770,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>-28.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -1388,7 +1803,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-5.07</v>
+        <v>-28.17</v>
       </c>
       <c r="G16" t="n">
         <v>-1</v>
@@ -1411,10 +1826,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.32</v>
+        <v>-13.38</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -1434,7 +1849,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1484,7 +1899,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.71</v>
+        <v>52.74</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1502,7 +1917,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1527,26 +1942,26 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>BAC</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
@@ -1558,17 +1973,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>MarketCap</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1560000000</v>
+        <v>214460000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Cap</t>
         </is>
@@ -1580,14 +1995,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Finance Stock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1642,10 +2057,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>62.09</v>
+        <v>9.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -1674,11 +2089,13 @@
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>26.24</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +2125,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>26.73</v>
+        <v>10.88</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1741,10 +2158,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>14.63</v>
+        <v>10.92</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1774,10 +2191,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28.66</v>
+        <v>9.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1840,10 +2257,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1873,7 +2290,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-3.76</v>
+        <v>-28.3</v>
       </c>
       <c r="G15" t="n">
         <v>-1</v>
@@ -1906,10 +2323,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>19.96</v>
+        <v>-28.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1929,10 +2346,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>73.52</v>
+        <v>-13.38</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2419,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>19.94</v>
+        <v>52.74</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2020,7 +2437,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2045,21 +2462,21 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="29" customWidth="1" min="2" max="2"/>
     <col width="29" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Stock</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>BAYRY</t>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>BAC</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -2069,14 +2486,14 @@
       <c r="G1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DAX</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SP500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -2086,13 +2503,13 @@
       <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>MarketCap</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>76430000</v>
+      <c r="B3" s="2" t="n">
+        <v>214460000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -2101,14 +2518,14 @@
       <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Cap</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>SmallCap</t>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>MidCap</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2118,14 +2535,14 @@
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Finance Stock</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N</t>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2195,7 +2612,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.52</v>
+        <v>9.07</v>
       </c>
       <c r="G8" t="n">
         <v>-1</v>
@@ -2227,11 +2644,13 @@
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>12.06</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2261,7 +2680,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>37.49</v>
+        <v>10.88</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -2294,10 +2713,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>24.88</v>
+        <v>10.92</v>
       </c>
       <c r="G11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2327,7 +2746,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.42</v>
+        <v>9.41</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2393,10 +2812,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-1.1</v>
+        <v>0.03</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2426,10 +2845,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.28</v>
+        <v>-28.3</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -2459,7 +2878,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-5.07</v>
+        <v>-28.17</v>
       </c>
       <c r="G16" t="n">
         <v>-1</v>
@@ -2482,10 +2901,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.32</v>
+        <v>-13.38</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2510,7 +2929,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2563,7 +2982,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.71</v>
+        <v>52.74</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2585,7 +3004,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="8" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VAR1.DE3" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,26 +11,59 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC2" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BAC9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AXP" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INTC3" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PHIA.AS" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PNDORA.CO" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -39,17 +72,68 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFBFCE1"/>
+        <bgColor rgb="FFFBFCE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8AF542"/>
+        <bgColor rgb="FF8AF542"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42B9F5"/>
+        <bgColor rgb="FF42B9F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00fbfce1"/>
         <bgColor rgb="00fbfce1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008af542"/>
+        <bgColor rgb="008af542"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0042b9f5"/>
+        <bgColor rgb="0042b9f5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00fc6f03"/>
+        <bgColor rgb="00fc6f03"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -63,12 +147,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,7 +554,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -884,6 +1058,7281 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Bank of America Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>214.46M</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr"/>
+      <c r="B5" s="6" t="inlineStr"/>
+      <c r="C5" s="6" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Bank of America Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr"/>
+      <c r="D1" s="24" t="inlineStr"/>
+      <c r="E1" s="24" t="inlineStr"/>
+      <c r="F1" s="24" t="inlineStr"/>
+      <c r="G1" s="24" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
+      <c r="D2" s="24" t="inlineStr"/>
+      <c r="E2" s="24" t="inlineStr"/>
+      <c r="F2" s="24" t="inlineStr"/>
+      <c r="G2" s="24" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="C3" s="23" t="inlineStr"/>
+      <c r="D3" s="24" t="inlineStr"/>
+      <c r="E3" s="24" t="inlineStr"/>
+      <c r="F3" s="24" t="inlineStr"/>
+      <c r="G3" s="24" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>214.46M</t>
+        </is>
+      </c>
+      <c r="C4" s="23" t="inlineStr"/>
+      <c r="D4" s="24" t="inlineStr"/>
+      <c r="E4" s="24" t="inlineStr"/>
+      <c r="F4" s="24" t="inlineStr"/>
+      <c r="G4" s="24" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr"/>
+      <c r="B5" s="23" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
+      <c r="D5" s="24" t="inlineStr"/>
+      <c r="E5" s="24" t="inlineStr"/>
+      <c r="F5" s="24" t="inlineStr"/>
+      <c r="G5" s="24" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="24" t="inlineStr"/>
+      <c r="G6" s="24" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="25" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="25" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="25" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="25" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="25" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="25" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="25" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="25" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="25" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="25" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="25" t="inlineStr"/>
+      <c r="E16" s="25" t="inlineStr"/>
+      <c r="F16" s="25" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="25" t="inlineStr"/>
+      <c r="E17" s="25" t="inlineStr"/>
+      <c r="F17" s="25" t="inlineStr"/>
+      <c r="G17" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="25" t="inlineStr"/>
+      <c r="E18" s="25" t="inlineStr"/>
+      <c r="F18" s="25" t="inlineStr"/>
+      <c r="G18" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="25" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="24" t="inlineStr"/>
+      <c r="E20" s="24" t="inlineStr"/>
+      <c r="F20" s="24" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="24" t="inlineStr"/>
+      <c r="E21" s="24" t="inlineStr"/>
+      <c r="F21" s="24" t="inlineStr"/>
+      <c r="G21" s="24" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="24" t="inlineStr"/>
+      <c r="E22" s="24" t="inlineStr"/>
+      <c r="F22" s="24" t="inlineStr"/>
+      <c r="G22" s="24" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="inlineStr"/>
+      <c r="B23" s="23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
+      <c r="D23" s="24" t="inlineStr"/>
+      <c r="E23" s="24" t="inlineStr"/>
+      <c r="F23" s="24" t="inlineStr"/>
+      <c r="G23" s="24" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="inlineStr"/>
+      <c r="B24" s="23" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
+      <c r="D24" s="24" t="inlineStr"/>
+      <c r="E24" s="24" t="inlineStr"/>
+      <c r="F24" s="24" t="inlineStr"/>
+      <c r="G24" s="24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="inlineStr"/>
+      <c r="B25" s="23" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
+      <c r="D25" s="24" t="inlineStr"/>
+      <c r="E25" s="24" t="inlineStr"/>
+      <c r="F25" s="24" t="inlineStr"/>
+      <c r="G25" s="24" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="24" t="inlineStr"/>
+      <c r="G26" s="24" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="25" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="25" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G27" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="25" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="25" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="25" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G29" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="25" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="25" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G30" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="25" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G31" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="23" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="24" t="inlineStr"/>
+      <c r="E32" s="24" t="inlineStr"/>
+      <c r="F32" s="24" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="24" t="inlineStr"/>
+      <c r="E33" s="24" t="inlineStr"/>
+      <c r="F33" s="24" t="inlineStr"/>
+      <c r="G33" s="24" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="24" t="inlineStr"/>
+      <c r="E34" s="24" t="inlineStr"/>
+      <c r="F34" s="24" t="inlineStr"/>
+      <c r="G34" s="24" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>American Express Company</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr"/>
+      <c r="D1" s="24" t="inlineStr"/>
+      <c r="E1" s="24" t="inlineStr"/>
+      <c r="F1" s="24" t="inlineStr"/>
+      <c r="G1" s="24" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
+      <c r="D2" s="24" t="inlineStr"/>
+      <c r="E2" s="24" t="inlineStr"/>
+      <c r="F2" s="24" t="inlineStr"/>
+      <c r="G2" s="24" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>DowJones</t>
+        </is>
+      </c>
+      <c r="C3" s="23" t="inlineStr"/>
+      <c r="D3" s="24" t="inlineStr"/>
+      <c r="E3" s="24" t="inlineStr"/>
+      <c r="F3" s="24" t="inlineStr"/>
+      <c r="G3" s="24" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>78.77M</t>
+        </is>
+      </c>
+      <c r="C4" s="23" t="inlineStr"/>
+      <c r="D4" s="24" t="inlineStr"/>
+      <c r="E4" s="24" t="inlineStr"/>
+      <c r="F4" s="24" t="inlineStr"/>
+      <c r="G4" s="24" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr"/>
+      <c r="B5" s="23" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
+      <c r="D5" s="24" t="inlineStr"/>
+      <c r="E5" s="24" t="inlineStr"/>
+      <c r="F5" s="24" t="inlineStr"/>
+      <c r="G5" s="24" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="24" t="inlineStr"/>
+      <c r="G6" s="24" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="25" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="25" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="25" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="25" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="25" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="25" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="25" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="25" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="25" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="25" t="n">
+        <v>-24.76</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>-18.79</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="25" t="inlineStr"/>
+      <c r="E16" s="25" t="inlineStr"/>
+      <c r="F16" s="25" t="n">
+        <v>-19.31</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="25" t="inlineStr"/>
+      <c r="E17" s="25" t="inlineStr"/>
+      <c r="F17" s="25" t="inlineStr"/>
+      <c r="G17" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="25" t="inlineStr"/>
+      <c r="E18" s="25" t="inlineStr"/>
+      <c r="F18" s="25" t="inlineStr"/>
+      <c r="G18" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="25" t="n">
+        <v>151.96</v>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="24" t="inlineStr"/>
+      <c r="E20" s="24" t="inlineStr"/>
+      <c r="F20" s="24" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="24" t="inlineStr"/>
+      <c r="E21" s="24" t="inlineStr"/>
+      <c r="F21" s="24" t="inlineStr"/>
+      <c r="G21" s="24" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="24" t="inlineStr"/>
+      <c r="E22" s="24" t="inlineStr"/>
+      <c r="F22" s="24" t="inlineStr"/>
+      <c r="G22" s="24" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="inlineStr"/>
+      <c r="B23" s="23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
+      <c r="D23" s="24" t="inlineStr"/>
+      <c r="E23" s="24" t="inlineStr"/>
+      <c r="F23" s="24" t="inlineStr"/>
+      <c r="G23" s="24" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="inlineStr"/>
+      <c r="B24" s="23" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
+      <c r="D24" s="24" t="inlineStr"/>
+      <c r="E24" s="24" t="inlineStr"/>
+      <c r="F24" s="24" t="inlineStr"/>
+      <c r="G24" s="24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="inlineStr"/>
+      <c r="B25" s="23" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
+      <c r="D25" s="24" t="inlineStr"/>
+      <c r="E25" s="24" t="inlineStr"/>
+      <c r="F25" s="24" t="inlineStr"/>
+      <c r="G25" s="24" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="24" t="inlineStr"/>
+      <c r="G26" s="24" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="25" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="25" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="G27" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="25" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="25" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="25" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="25" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="25" t="n">
+        <v>14.09</v>
+      </c>
+      <c r="G29" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="25" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="25" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G30" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="25" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="25" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="25" t="n">
+        <v>-18.79</v>
+      </c>
+      <c r="G31" s="25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="23" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="24" t="inlineStr"/>
+      <c r="E32" s="24" t="inlineStr"/>
+      <c r="F32" s="24" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="24" t="inlineStr"/>
+      <c r="E33" s="24" t="inlineStr"/>
+      <c r="F33" s="24" t="inlineStr"/>
+      <c r="G33" s="24" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="24" t="inlineStr"/>
+      <c r="E34" s="24" t="inlineStr"/>
+      <c r="F34" s="24" t="inlineStr"/>
+      <c r="G34" s="24" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>247.73M</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr"/>
+      <c r="B5" s="6" t="inlineStr"/>
+      <c r="C5" s="6" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="6" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr"/>
+      <c r="B24" s="6" t="inlineStr"/>
+      <c r="C24" s="6" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr"/>
+      <c r="B25" s="6" t="inlineStr"/>
+      <c r="C25" s="6" t="inlineStr"/>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="23" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="C2" s="23" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="C3" s="23" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>247.73M</t>
+        </is>
+      </c>
+      <c r="C4" s="23" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="inlineStr"/>
+      <c r="B5" s="23" t="inlineStr"/>
+      <c r="C5" s="23" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="23" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="23" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="23" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="inlineStr"/>
+      <c r="B23" s="23" t="inlineStr"/>
+      <c r="C23" s="23" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="23" t="inlineStr"/>
+      <c r="B24" s="23" t="inlineStr"/>
+      <c r="C24" s="23" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23" t="inlineStr"/>
+      <c r="B25" s="23" t="inlineStr"/>
+      <c r="C25" s="23" t="inlineStr"/>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="23" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="23" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="23" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="15" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="15" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="C2" s="27" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="C3" s="27" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>247.73M</t>
+        </is>
+      </c>
+      <c r="C4" s="27" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="inlineStr"/>
+      <c r="B5" s="27" t="inlineStr"/>
+      <c r="C5" s="27" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="inlineStr"/>
+      <c r="B23" s="27" t="inlineStr"/>
+      <c r="C23" s="27" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="inlineStr"/>
+      <c r="B24" s="27" t="inlineStr"/>
+      <c r="C24" s="27" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="inlineStr"/>
+      <c r="B25" s="27" t="inlineStr"/>
+      <c r="C25" s="27" t="inlineStr"/>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="28" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="28" t="inlineStr">
+        <is>
+          <t>Intel Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="28" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="28" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="C2" s="27" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="28" t="inlineStr">
+        <is>
+          <t>NASDAQ</t>
+        </is>
+      </c>
+      <c r="C3" s="27" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="28" t="inlineStr">
+        <is>
+          <t>247.73M</t>
+        </is>
+      </c>
+      <c r="C4" s="27" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="inlineStr"/>
+      <c r="B5" s="27" t="inlineStr"/>
+      <c r="C5" s="27" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="17" t="inlineStr"/>
+      <c r="D6" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="19" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>56.88</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="19" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="19" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="19" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="19" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="19" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="19" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="19" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="27" t="inlineStr"/>
+      <c r="B20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="27" t="inlineStr"/>
+      <c r="B21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="27" t="inlineStr"/>
+      <c r="B22" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="27" t="inlineStr"/>
+      <c r="B23" s="27" t="inlineStr"/>
+      <c r="C23" s="27" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="27" t="inlineStr"/>
+      <c r="B24" s="27" t="inlineStr"/>
+      <c r="C24" s="27" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="27" t="inlineStr"/>
+      <c r="B25" s="27" t="inlineStr"/>
+      <c r="C25" s="27" t="inlineStr"/>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr"/>
+      <c r="D26" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="19" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>30.31</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="19" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="19" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="19" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="19" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="19" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="19" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="27" t="inlineStr"/>
+      <c r="B32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="21" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="inlineStr"/>
+      <c r="B33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="27" t="inlineStr"/>
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="21" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="26" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G226"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="29" t="inlineStr">
+        <is>
+          <t>Koninklijke Philips N.V.</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>PHIA.AS</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>EUROStoxx50</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>37.28M</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr"/>
+      <c r="D6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>46.63</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>23.22</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="33" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="33" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="33" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="33" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="33" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="33" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="33" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="33" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="34" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="34" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="34" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="34" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="34" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="34" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="30" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="31" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="31" t="inlineStr"/>
+      <c r="D26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="33" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="33" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>36.29</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="33" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="34" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="34" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="34" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="34" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="34" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="34" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="30" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="29" t="inlineStr">
+        <is>
+          <t>Pandora A/S</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" s="11" t="inlineStr"/>
+      <c r="E1" s="11" t="inlineStr"/>
+      <c r="F1" s="11" t="inlineStr"/>
+      <c r="G1" s="11" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>46.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="29" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="29" t="inlineStr">
+        <is>
+          <t>PNDORA.CO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" s="11" t="inlineStr"/>
+      <c r="E2" s="11" t="inlineStr"/>
+      <c r="F2" s="11" t="inlineStr"/>
+      <c r="G2" s="11" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>EUROStoxx600</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" s="11" t="inlineStr"/>
+      <c r="E3" s="11" t="inlineStr"/>
+      <c r="F3" s="11" t="inlineStr"/>
+      <c r="G3" s="11" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="29" t="inlineStr">
+        <is>
+          <t>35.49M</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="11" t="inlineStr"/>
+      <c r="E4" s="11" t="inlineStr"/>
+      <c r="F4" s="11" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" s="11" t="inlineStr"/>
+      <c r="E5" s="11" t="inlineStr"/>
+      <c r="F5" s="11" t="inlineStr"/>
+      <c r="G5" s="11" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="31" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="31" t="inlineStr"/>
+      <c r="D6" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="inlineStr"/>
+      <c r="G6" s="11" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="20" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="20" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>24.33</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="33" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="33" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="33" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="20" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="20" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="33" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="33" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="33" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="20" t="inlineStr"/>
+      <c r="E16" s="20" t="inlineStr"/>
+      <c r="F16" s="20" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="33" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="33" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="20" t="inlineStr"/>
+      <c r="E17" s="20" t="inlineStr"/>
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="33" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="33" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="20" t="inlineStr"/>
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="33" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="33" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="35" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="C20" s="35" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
+      <c r="E20" s="11" t="inlineStr"/>
+      <c r="F20" s="11" t="inlineStr"/>
+      <c r="G20" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="35" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="35" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
+      <c r="E21" s="11" t="inlineStr"/>
+      <c r="F21" s="11" t="inlineStr"/>
+      <c r="G21" s="11" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="35" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="35" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr"/>
+      <c r="E22" s="11" t="inlineStr"/>
+      <c r="F22" s="11" t="inlineStr"/>
+      <c r="G22" s="11" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="11" t="inlineStr"/>
+      <c r="E23" s="11" t="inlineStr"/>
+      <c r="F23" s="11" t="inlineStr"/>
+      <c r="G23" s="11" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="11" t="inlineStr"/>
+      <c r="E24" s="11" t="inlineStr"/>
+      <c r="F24" s="11" t="inlineStr"/>
+      <c r="G24" s="11" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="11" t="inlineStr"/>
+      <c r="E25" s="11" t="inlineStr"/>
+      <c r="F25" s="11" t="inlineStr"/>
+      <c r="G25" s="11" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="30" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="31" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="31" t="inlineStr"/>
+      <c r="D26" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="11" t="inlineStr"/>
+      <c r="G26" s="11" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="33" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="33" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="20" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>46.68</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="33" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="20" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="33" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="33" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="20" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="33" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="33" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="20" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="20" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="33" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" s="36" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="C32" s="36" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
+      <c r="E32" s="11" t="inlineStr"/>
+      <c r="F32" s="11" t="inlineStr"/>
+      <c r="G32" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" s="36" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="36" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="11" t="inlineStr"/>
+      <c r="E33" s="11" t="inlineStr"/>
+      <c r="F33" s="11" t="inlineStr"/>
+      <c r="G33" s="11" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="36" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="36" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="11" t="inlineStr"/>
+      <c r="E34" s="11" t="inlineStr"/>
+      <c r="F34" s="11" t="inlineStr"/>
+      <c r="G34" s="11" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1418,11 +8867,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -1937,11 +9385,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -2006,7 +9453,6 @@
         </is>
       </c>
     </row>
-    <row r="6"/>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
@@ -2457,11 +9903,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="29" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -2479,11 +9924,6 @@
           <t>BAC</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -2496,11 +9936,6 @@
           <t>SP500</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -2511,11 +9946,6 @@
       <c r="B3" s="2" t="n">
         <v>214460000</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -2528,11 +9958,6 @@
           <t>MidCap</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
@@ -2545,20 +9970,6 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2582,8 +9993,6 @@
       <c r="E7" t="n">
         <v>-1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2906,8 +10315,6 @@
       <c r="E17" t="n">
         <v>-1</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2925,9 +10332,6 @@
           <t>Price Momentum</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
         <v>0</v>
       </c>
@@ -2948,9 +10352,6 @@
           <t>3 Month Reversal Effect</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>0</v>
       </c>
@@ -2999,13 +10400,2124 @@
           <t>Levermann-Score</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>MarketCap</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>214460000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Cap</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Finance Stock</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Levermann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Summe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Levermann-Score</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>MarketCap</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>214460000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Cap</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Finance Stock</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Levermann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Summe</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Levermann-Score</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Bank of America Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="6" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>214460000</v>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="6" t="n"/>
+      <c r="G6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="9" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="9" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="9" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="9" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="9" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="9" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="9" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="9" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>-13.38</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="9" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="9" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="n"/>
+      <c r="F20" s="6" t="n"/>
+      <c r="G20" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="5" customWidth="1" min="4" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Bank of America Corporation</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="11" t="n"/>
+      <c r="E2" s="11" t="n"/>
+      <c r="F2" s="11" t="n"/>
+      <c r="G2" s="11" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+      <c r="D3" s="11" t="n"/>
+      <c r="E3" s="11" t="n"/>
+      <c r="F3" s="11" t="n"/>
+      <c r="G3" s="11" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>214460000</v>
+      </c>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="11" t="n"/>
+      <c r="E4" s="11" t="n"/>
+      <c r="F4" s="11" t="n"/>
+      <c r="G4" s="11" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="11" t="n"/>
+      <c r="G5" s="11" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="n"/>
+      <c r="D6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="11" t="n"/>
+      <c r="G6" s="11" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="13" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="13" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="13" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="13" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="13" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="13" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="13" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>-28.3</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>-28.17</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="E16" s="13" t="n"/>
+      <c r="F16" s="13" t="n">
+        <v>-13.38</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="13" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="13" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="13" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>52.74</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="6" t="n"/>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Possible Buy</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="n"/>
+      <c r="E20" s="11" t="n"/>
+      <c r="F20" s="11" t="n"/>
+      <c r="G20" s="14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="6" t="n"/>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="n"/>
+      <c r="E21" s="11" t="n"/>
+      <c r="F21" s="11" t="n"/>
+      <c r="G21" s="11" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="6" t="n"/>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="n"/>
+      <c r="E22" s="11" t="n"/>
+      <c r="F22" s="11" t="n"/>
+      <c r="G22" s="11" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
@@ -3,27 +3,41 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VAR1.DE3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HEIA.AS" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HEIA.AS1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HEIA.AS2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSL.AX" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSL.AX1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSL.AX2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RBI.VI" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -34,12 +48,36 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBFCE1"/>
+        <bgColor rgb="FFFBFCE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8AF542"/>
+        <bgColor rgb="FF8AF542"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42B9F5"/>
+        <bgColor rgb="FF42B9F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC6F03"/>
+        <bgColor rgb="FFFC6F03"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,12 +104,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -85,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -106,6 +159,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -419,7 +490,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -936,6 +1007,2529 @@
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="5" customWidth="1" min="4" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Heineken N.V.</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>HEIA.AS</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>AEX25</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT (ttm)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3858000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>47.87M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue (ttm)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>23969000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n">
+        <v>-13.57</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="n"/>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="B22" s="8" t="n"/>
+      <c r="C22" s="8" t="n"/>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="n"/>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
+      <c r="G31" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="9" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="B34" s="8" t="n"/>
+      <c r="C34" s="8" t="n"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="5" customWidth="1" min="4" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Heineken N.V.</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>HEIA.AS</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>AEX25</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT (ttm)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3858000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>47.87M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue (ttm)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>23969000.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge (ttm)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>16.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n">
+        <v>-13.57</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="2" max="3"/>
+    <col width="5" customWidth="1" min="4" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Heineken N.V.</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>HEIA.AS</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>AEX25</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT (ttm)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>3.86M</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>47.87M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue (ttm)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>23.97M</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge (ttm)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>16.1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G8" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>25.26</v>
+      </c>
+      <c r="G10" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G11" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n">
+        <v>-13.57</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n"/>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="n"/>
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="7" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="G27" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="G28" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="G29" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G30" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="7" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="G31" s="7" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n"/>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,17 +3550,18 @@
     <col width="9" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="58" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Heineken N.V.</t>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>BlueScope Steel Limited</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr"/>
@@ -980,14 +3575,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>HEIA.AS</t>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>BSL.AX</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
@@ -1004,19 +3599,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>7.89%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>AEX25</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ASX200</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
@@ -1033,19 +3628,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3858000.0</t>
+          <t>823.8T</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>MCap</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>47.87M</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>5.55M</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
@@ -1059,451 +3654,493 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23969000.0</t>
+          <t>11.98M</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nr.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Levermann Checkliste FULL</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge (ttm)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.88%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6864100</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['2019-06-29', '2018-06-29', '2017-06-29', '2016-06-29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="F7" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>11696300</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>['2019-06-29', '2018-06-29', '2017-06-29', '2016-06-29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="F8" s="15" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['2019-06-29', '2018-06-29', '2017-06-29', '2016-06-29']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalquote</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>Equity Ratio</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>&gt;25</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>&lt;15</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="F9" s="15" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>KGV Aktuell</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio History</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F10" s="15" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>KGV 5 Jahre Mittel</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>P/E-Ratio Actual</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>&lt;12</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>&gt;16</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G10" s="7" t="n">
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G15" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Analystenmeinung</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Analyst Opinions</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>&lt;2</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>&gt;4</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Reaktion auf Quartalszahlen</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Reaction to quarter numbers</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>&gt;1</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>&lt;-1</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>Gewinnrevision</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Profit Revision</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 6M</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 6 month</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 1J</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 12 month</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="n">
-        <v>-13.57</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>Kursmomentum Steigend</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Price Momentum</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>Dreimonatsreversal</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>3 Month Reversal Effect</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>Gewinnwachstum</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Profit Growth</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr"/>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr"/>
-      <c r="E19" s="7" t="inlineStr"/>
-      <c r="F19" s="7" t="inlineStr"/>
-      <c r="G19" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>SmallCap</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <t>SmallCap</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="9" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>Kein Finanzwert</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
-        <is>
-          <t>No Financial Stock</t>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1512,8 +4149,16 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="inlineStr"/>
-      <c r="C22" s="8" t="inlineStr"/>
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1532,224 +4177,214 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Nr.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Levermann Checkliste LIGHT</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>-1</v>
-      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C27" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D27" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E27" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="n">
+      <c r="F27" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="B28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D28" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F27" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="F28" s="15" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B29" s="14" t="inlineStr">
         <is>
           <t>KGV 5 Jahre Mittel</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C29" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio Actual</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D29" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E29" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F28" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G28" s="7" t="n">
+      <c r="F29" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G31" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
-        <is>
-          <t>Reaktion auf Quartalszahlen</t>
-        </is>
-      </c>
-      <c r="C29" s="6" t="inlineStr">
-        <is>
-          <t>Reaction to quarter numbers</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>&gt;1</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr">
-        <is>
-          <t>&lt;-1</t>
-        </is>
-      </c>
-      <c r="F29" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 6M</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 6 month</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="inlineStr"/>
-      <c r="B31" s="6" t="inlineStr">
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr"/>
-      <c r="E31" s="7" t="inlineStr"/>
-      <c r="F31" s="7" t="inlineStr"/>
-      <c r="G31" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>SmallCap</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
-        <is>
-          <t>SmallCap</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="9" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Kein Finanzwert</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
-        <is>
-          <t>No Financial Stock</t>
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -1758,25 +4393,33 @@
       <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="8" t="n"/>
-      <c r="C34" s="8" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,17 +4440,19 @@
     <col width="9" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="58" customWidth="1" min="14" max="14"/>
+    <col width="43" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Heineken N.V.</t>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>BlueScope Steel Limited</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr"/>
@@ -1821,14 +4466,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>HEIA.AS</t>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>BSL.AX</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
@@ -1845,19 +4490,19 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14.38%</t>
+          <t>7.89%</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>AEX25</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ASX200</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
@@ -1869,24 +4514,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>EBIT (ttm)</t>
+          <t>EBIT</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3858000.0</t>
+          <t>1.36M</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>MCap</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>47.87M</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>5.55M</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
@@ -1895,12 +4545,17 @@
       <c r="G4" s="2" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Revenue (ttm)</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23969000.0</t>
+          <t>11.98M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
         </is>
       </c>
     </row>
@@ -1911,420 +4566,476 @@
       <c r="G5" s="2" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>EBIT Marge (ttm)</t>
+          <t>EBIT Marge</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16.1%</t>
+          <t>11.39%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Nr.</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Levermann Checkliste FULL</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6.86M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
+      <c r="F7" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>11696300</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
+      <c r="F8" s="15" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>58.69%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['2019-06-29', '2018-06-29', '2017-06-29', '2016-06-29']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalquote</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>Equity Ratio</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>&gt;25</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>&lt;15</t>
         </is>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F9" s="15" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="G9" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>KGV Aktuell</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio History</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F10" s="7" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G10" s="7" t="n">
+      <c r="F10" s="15" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>KGV 5 Jahre Mittel</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>P/E-Ratio Actual</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>&lt;12</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>&gt;16</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G11" s="7" t="n">
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G15" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>Analystenmeinung</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Analyst Opinions</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>&lt;2</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>&gt;4</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>Reaktion auf Quartalszahlen</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Reaction to quarter numbers</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>&gt;1</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>&lt;-1</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G13" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>Gewinnrevision</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Profit Revision</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 6M</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 6 month</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G15" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 1J</t>
-        </is>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 12 month</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="n">
-        <v>-13.57</v>
-      </c>
-      <c r="G16" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>Kursmomentum Steigend</t>
-        </is>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Price Momentum</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>Dreimonatsreversal</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>3 Month Reversal Effect</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>Gewinnwachstum</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Profit Growth</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="n">
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
@@ -2332,17 +5043,17 @@
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="9" t="n">
-        <v>-1</v>
+      <c r="G20" s="17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
@@ -2353,12 +5064,12 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="16" t="inlineStr">
         <is>
           <t>Kein Finanzwert</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="16" t="inlineStr">
         <is>
           <t>No Financial Stock</t>
         </is>
@@ -2387,188 +5098,188 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Nr.</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Levermann Checkliste LIGHT</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="n">
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <v>-1</v>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F27" s="7" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G27" s="7" t="n">
-        <v>0</v>
+      <c r="F27" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D28" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F28" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>1</v>
+      <c r="F28" s="15" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="14" t="inlineStr">
         <is>
           <t>KGV 5 Jahre Mittel</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio Actual</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
+      <c r="D29" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F29" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G29" s="7" t="n">
+      <c r="F29" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G31" s="15" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B30" s="6" t="inlineStr">
-        <is>
-          <t>Reaktion auf Quartalszahlen</t>
-        </is>
-      </c>
-      <c r="C30" s="6" t="inlineStr">
-        <is>
-          <t>Reaction to quarter numbers</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>&gt;1</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t>&lt;-1</t>
-        </is>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G30" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B31" s="6" t="inlineStr">
-        <is>
-          <t>Kurs Heute vs. Kurs 6M</t>
-        </is>
-      </c>
-      <c r="C31" s="6" t="inlineStr">
-        <is>
-          <t>Price Change for 6 month</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr">
-        <is>
-          <t>&lt;5</t>
-        </is>
-      </c>
-      <c r="F31" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G31" s="7" t="n">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="32">
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
@@ -2576,17 +5287,17 @@
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="9" t="n">
+      <c r="G32" s="17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
@@ -2597,12 +5308,12 @@
       <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B34" s="16" t="inlineStr">
         <is>
           <t>Kein Finanzwert</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr">
+      <c r="C34" s="16" t="inlineStr">
         <is>
           <t>No Financial Stock</t>
         </is>
@@ -2617,13 +5328,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2644,17 +5355,929 @@
     <col width="9" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="43" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Heineken N.V.</t>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>BlueScope Steel Limited</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>BSL.AX</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ASX200</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>823.8T</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>5.55M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>12.53M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6.57%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6.86M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>11.7M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>58.69%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>58.69</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-20.32</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="26" customWidth="1" min="13" max="13"/>
+    <col width="43" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Raiffeisen Bank International AG</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -2672,16 +6295,17 @@
       </c>
       <c r="L1" t="inlineStr"/>
       <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="10" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>HEIA.AS</t>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>RBI.VI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -2702,19 +6326,20 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14.38%</t>
-        </is>
-      </c>
+          <t>10.10%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="10" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>AEX25</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ATX</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -2730,24 +6355,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>EBIT (ttm)</t>
+          <t>EBIT</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>3.86M</t>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="10" t="inlineStr">
         <is>
           <t>MCap</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>47.87M</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>5.39M</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2761,12 +6391,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Revenue (ttm)</t>
+          <t>Revenue</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23.97M</t>
+          <t>7.37M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
         </is>
       </c>
     </row>
@@ -2784,31 +6419,32 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>EBIT Marge (ttm)</t>
+          <t>EBIT Marge</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>16.1%</t>
-        </is>
-      </c>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>Nr.</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>Levermann Checkliste FULL</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
         <v>-1</v>
       </c>
       <c r="F6" s="2" t="inlineStr"/>
@@ -2816,187 +6452,248 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12.95M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F7" s="7" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G7" s="7" t="n">
+      <c r="F7" s="15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>152.2M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>1</v>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="B9" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalquote</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
         <is>
           <t>Equity Ratio</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="15" t="inlineStr">
         <is>
           <t>&gt;25</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="15" t="inlineStr">
         <is>
           <t>&lt;15</t>
         </is>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>1</v>
+      <c r="F9" s="15" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[6.0, 5.75, 8.94, 12.54]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="14" t="inlineStr">
         <is>
           <t>KGV Aktuell</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio History</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E10" s="7" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F10" s="7" t="n">
-        <v>25.26</v>
-      </c>
-      <c r="G10" s="7" t="n">
-        <v>-1</v>
+      <c r="F10" s="15" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="14" t="inlineStr">
         <is>
           <t>KGV 5 Jahre Mittel</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio Actual</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G11" s="7" t="n">
-        <v>-1</v>
+      <c r="F11" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -3004,37 +6701,38 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="14" t="inlineStr">
         <is>
           <t>Analystenmeinung</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
         <is>
           <t>Analyst Opinions</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>&lt;2</t>
         </is>
       </c>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>&gt;4</t>
         </is>
       </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="F12" s="15" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -3043,35 +6741,36 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="6" t="inlineStr">
+      <c r="B13" s="14" t="inlineStr">
         <is>
           <t>Reaktion auf Quartalszahlen</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>Reaction to quarter numbers</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>&gt;1</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="15" t="inlineStr">
         <is>
           <t>&lt;-1</t>
         </is>
       </c>
-      <c r="F13" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G13" s="7" t="n">
+      <c r="F13" s="15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G13" s="15" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -3080,35 +6779,36 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="14" t="inlineStr">
         <is>
           <t>Gewinnrevision</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>Profit Revision</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F14" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="n">
+      <c r="F14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -3117,35 +6817,36 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="14" t="inlineStr">
         <is>
           <t>Kurs Heute vs. Kurs 6M</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
         <is>
           <t>Price Change for 6 month</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F15" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G15" s="7" t="n">
+      <c r="F15" s="15" t="n">
+        <v>-24.74</v>
+      </c>
+      <c r="G15" s="15" t="n">
         <v>-1</v>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -3154,27 +6855,28 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="14" t="inlineStr">
         <is>
           <t>Kurs Heute vs. Kurs 1J</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>Price Change for 12 month</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="n">
-        <v>-13.57</v>
-      </c>
-      <c r="G16" s="7" t="n">
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>-18.25</v>
+      </c>
+      <c r="G16" s="15" t="n">
         <v>-1</v>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -3183,25 +6885,26 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="6" t="inlineStr">
+      <c r="B17" s="14" t="inlineStr">
         <is>
           <t>Kursmomentum Steigend</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="14" t="inlineStr">
         <is>
           <t>Price Momentum</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
-      <c r="G17" s="7" t="n">
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -3210,25 +6913,26 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="14" t="inlineStr">
         <is>
           <t>Dreimonatsreversal</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>3 Month Reversal Effect</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="7" t="n">
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -3237,35 +6941,36 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="inlineStr">
+      <c r="B19" s="14" t="inlineStr">
         <is>
           <t>Gewinnwachstum</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C19" s="14" t="inlineStr">
         <is>
           <t>Profit Growth</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F19" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="n">
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -3274,15 +6979,16 @@
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
@@ -3290,8 +6996,8 @@
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="9" t="n">
-        <v>-1</v>
+      <c r="G20" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -3299,15 +7005,16 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
@@ -3322,17 +7029,18 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>Kein Finanzwert</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
-        <is>
-          <t>No Financial Stock</t>
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -3345,6 +7053,7 @@
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -3360,6 +7069,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -3375,6 +7085,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3390,23 +7101,24 @@
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="11" t="inlineStr">
         <is>
           <t>Nr.</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="12" t="inlineStr">
         <is>
           <t>Levermann Checkliste LIGHT</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5" t="n">
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <v>-1</v>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
@@ -3417,35 +7129,36 @@
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
         <is>
           <t>Eigenkapitalrendite RoE</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr">
+      <c r="C27" s="14" t="inlineStr">
         <is>
           <t>Return on Equity RoE</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="15" t="inlineStr">
         <is>
           <t>&gt;20</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="15" t="inlineStr">
         <is>
           <t>&lt;10</t>
         </is>
       </c>
-      <c r="F27" s="7" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="G27" s="7" t="n">
+      <c r="F27" s="15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G27" s="15" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3454,36 +7167,39 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Marge</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
         <is>
           <t>EBIT-Margin</t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D28" s="15" t="inlineStr">
         <is>
           <t>&gt;12</t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E28" s="15" t="inlineStr">
         <is>
           <t>&lt;6</t>
         </is>
       </c>
-      <c r="F28" s="7" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="G28" s="7" t="n">
-        <v>1</v>
+      <c r="F28" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -3491,36 +7207,37 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B29" s="6" t="inlineStr">
+      <c r="B29" s="14" t="inlineStr">
         <is>
           <t>KGV 5 Jahre Mittel</t>
         </is>
       </c>
-      <c r="C29" s="6" t="inlineStr">
+      <c r="C29" s="14" t="inlineStr">
         <is>
           <t>P/E-Ratio Actual</t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr">
+      <c r="D29" s="15" t="inlineStr">
         <is>
           <t>&lt;12</t>
         </is>
       </c>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="E29" s="15" t="inlineStr">
         <is>
           <t>&gt;16</t>
         </is>
       </c>
-      <c r="F29" s="7" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="G29" s="7" t="n">
-        <v>-1</v>
+      <c r="F29" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -3528,35 +7245,36 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B30" s="6" t="inlineStr">
+      <c r="B30" s="14" t="inlineStr">
         <is>
           <t>Reaktion auf Quartalszahlen</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="14" t="inlineStr">
         <is>
           <t>Reaction to quarter numbers</t>
         </is>
       </c>
-      <c r="D30" s="7" t="inlineStr">
+      <c r="D30" s="15" t="inlineStr">
         <is>
           <t>&gt;1</t>
         </is>
       </c>
-      <c r="E30" s="7" t="inlineStr">
+      <c r="E30" s="15" t="inlineStr">
         <is>
           <t>&lt;-1</t>
         </is>
       </c>
-      <c r="F30" s="7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="G30" s="7" t="n">
+      <c r="F30" s="15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G30" s="15" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3565,35 +7283,36 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B31" s="6" t="inlineStr">
+      <c r="B31" s="14" t="inlineStr">
         <is>
           <t>Kurs Heute vs. Kurs 6M</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="14" t="inlineStr">
         <is>
           <t>Price Change for 6 month</t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D31" s="15" t="inlineStr">
         <is>
           <t>&gt;5</t>
         </is>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E31" s="15" t="inlineStr">
         <is>
           <t>&lt;5</t>
         </is>
       </c>
-      <c r="F31" s="7" t="n">
-        <v>-8.77</v>
-      </c>
-      <c r="G31" s="7" t="n">
+      <c r="F31" s="15" t="n">
+        <v>-24.74</v>
+      </c>
+      <c r="G31" s="15" t="n">
         <v>-1</v>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -3602,15 +7321,16 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="C32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
         </is>
@@ -3618,8 +7338,8 @@
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="9" t="n">
-        <v>0</v>
+      <c r="G32" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -3627,15 +7347,16 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr">
+      <c r="C33" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
         </is>
@@ -3650,17 +7371,18 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Kein Finanzwert</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
-        <is>
-          <t>No Financial Stock</t>
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -3673,6 +7395,7 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
+++ b/Webscraping_With_BeautifulSoup/LevermannScores.xlsx
@@ -14,6 +14,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSL.AX1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSL.AX2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RBI.VI" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RBI.VI1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOLB.BR" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOLB.BR1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AAPL" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AAPL1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -138,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -179,6 +184,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1000,6 +1006,4059 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="48" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Solvay SA</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker:</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>SOLB.BR</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index:</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>BEL20</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>257000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap:</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>7.3M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>11.35M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>9.51M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21.31M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>44.65%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>90.62, 10.52, 11.2, 18.54</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-12-30, 2018-12-30, 2017-12-30, 2016-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>32.72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>-17.15</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="48" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Solvay SA</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker:</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>SOLB.BR</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-0.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index:</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>BEL20</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>257000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap:</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>7.3M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>11.35M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.27%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>9.51M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>21.31M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>44.65%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>90.62, 10.52, 11.2, 18.54</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-12-30, 2018-12-30, 2017-12-30, 2016-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>32.72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>-17.15</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>52.61</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-29.37</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="48" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker:</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>62.09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index:</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>70309000</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap:</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>1.58B</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>267.98M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>26.24%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>90.49M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>338.52M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>26.73%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17.55, 16.53, 13.8, 10.63</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-09-29, 2018-09-29, 2017-09-29, 2016-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1:Buy, 5:Sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="18" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="18" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="18" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="18" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="48" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name:</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="H1" t="inlineStr"/>
+      <c r="I1" t="inlineStr"/>
+      <c r="J1" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr"/>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker:</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>62.09%</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index:</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>SP500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>70.31M</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap:</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>1.58B</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>267.98M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>26.24%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>(EBIT / Revenue) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>90.49M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>338.52M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>26.73%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>26.73</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>17.55, 16.53, 13.8, 10.63</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-09-29, 2018-09-29, 2017-09-29, 2016-09-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1:Buy, 5:Sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>-2.56</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="18" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr">
+        <is>
+          <t>Possible Holding</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="18" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="18" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="18" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>62.09</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>27.78</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>MidCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Kein Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>No Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6280,22 +10339,15 @@
           <t>Raiffeisen Bank International AG</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
       <c r="D1" s="2" t="inlineStr"/>
       <c r="E1" s="2" t="inlineStr"/>
       <c r="F1" s="2" t="inlineStr"/>
       <c r="G1" s="2" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-      <c r="N1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr">
@@ -6308,14 +10360,10 @@
           <t>RBI.VI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +10377,6 @@
           <t>10.10%</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="inlineStr">
@@ -6342,14 +10389,10 @@
           <t>ATX</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>2</v>
       </c>
@@ -6380,15 +10423,10 @@
           <t>5.39M</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>Revenue</t>
@@ -6406,17 +10444,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>EBIT Marge</t>
@@ -6427,7 +10458,6 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
@@ -6449,9 +10479,6 @@
       </c>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>3</v>
       </c>
@@ -6501,10 +10528,6 @@
       <c r="G7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>Total Assets</t>
@@ -6553,10 +10576,6 @@
       <c r="G8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>Equity Ratio</t>
@@ -6603,9 +10622,6 @@
       <c r="G9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>4</v>
       </c>
@@ -6619,7 +10635,6 @@
           <t>[6.0, 5.75, 8.94, 12.54]</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="14" t="n">
@@ -6651,10 +10666,6 @@
       <c r="G10" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>P/E-Ratio 5Y</t>
@@ -6663,7 +10674,6 @@
       <c r="M10" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="n">
@@ -6695,13 +10705,6 @@
       <c r="G11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="14" t="n">
@@ -6735,13 +10738,6 @@
       <c r="G12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="14" t="n">
@@ -6773,13 +10769,6 @@
       <c r="G13" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="14" t="n">
@@ -6811,13 +10800,6 @@
       <c r="G14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="n">
@@ -6849,13 +10831,6 @@
       <c r="G15" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="14" t="n">
@@ -6879,13 +10854,6 @@
       <c r="G16" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="14" t="n">
@@ -6907,13 +10875,6 @@
       <c r="G17" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="14" t="n">
@@ -6935,13 +10896,6 @@
       <c r="G18" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="14" t="n">
@@ -6973,16 +10927,8 @@
       <c r="G19" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
@@ -6999,16 +10945,8 @@
       <c r="G20" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
@@ -7023,16 +10961,8 @@
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="16" t="inlineStr">
         <is>
           <t>Finanzwert</t>
@@ -7047,61 +10977,24 @@
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
@@ -7123,13 +11016,6 @@
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="14" t="n">
@@ -7161,13 +11047,6 @@
       <c r="G27" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="14" t="n">
@@ -7201,13 +11080,6 @@
       <c r="G28" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="14" t="n">
@@ -7239,13 +11111,6 @@
       <c r="G29" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="14" t="n">
@@ -7277,13 +11142,6 @@
       <c r="G30" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="14" t="n">
@@ -7315,16 +11173,8 @@
       <c r="G31" s="15" t="n">
         <v>-1</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="16" t="inlineStr">
         <is>
           <t>Possible Sell</t>
@@ -7341,16 +11191,8 @@
       <c r="G32" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="16" t="inlineStr">
         <is>
           <t>SmallCap</t>
@@ -7365,16 +11207,8 @@
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" s="16" t="inlineStr">
         <is>
           <t>Finanzwert</t>
@@ -7389,13 +11223,942 @@
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="48" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Raiffeisen Bank International AG</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr"/>
+      <c r="E1" s="2" t="inlineStr"/>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>RBI.VI</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr"/>
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Return on Equity (ttm)</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>10.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>ATX</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>EBIT</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="inlineStr">
+        <is>
+          <t>MCap</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>5.39M</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7.37M</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>ttm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" s="2" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>EBIT Marge</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B6" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste FULL</t>
+        </is>
+      </c>
+      <c r="C6" s="12" t="inlineStr"/>
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Stockholders Equity</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12.95M</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D7" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E7" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>152.2M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F8" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8.51%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>(Stockholder Equity / Total Assets) * 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalquote</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Equity Ratio</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>&gt;25</t>
+        </is>
+      </c>
+      <c r="E9" s="15" t="inlineStr">
+        <is>
+          <t>&lt;15</t>
+        </is>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History per year</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.0, 5.75, 8.94, 12.54</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019-12-30, 2018-12-30, 2017-12-30, 2016-12-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14" t="inlineStr">
+        <is>
+          <t>KGV Aktuell</t>
+        </is>
+      </c>
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio History</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P/E-Ratio 5Y</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E11" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="inlineStr">
+        <is>
+          <t>Analystenmeinung</t>
+        </is>
+      </c>
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>Analyst Opinions</t>
+        </is>
+      </c>
+      <c r="D12" s="15" t="inlineStr">
+        <is>
+          <t>&lt;2</t>
+        </is>
+      </c>
+      <c r="E12" s="15" t="inlineStr">
+        <is>
+          <t>&gt;4</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E13" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G13" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnrevision</t>
+        </is>
+      </c>
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>Profit Revision</t>
+        </is>
+      </c>
+      <c r="D14" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E14" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D15" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E15" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>-24.74</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 1J</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 12 month</t>
+        </is>
+      </c>
+      <c r="D16" s="15" t="inlineStr"/>
+      <c r="E16" s="15" t="inlineStr"/>
+      <c r="F16" s="15" t="n">
+        <v>-19.13</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>Kursmomentum Steigend</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>Price Momentum</t>
+        </is>
+      </c>
+      <c r="D17" s="15" t="inlineStr"/>
+      <c r="E17" s="15" t="inlineStr"/>
+      <c r="F17" s="15" t="inlineStr"/>
+      <c r="G17" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Dreimonatsreversal</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>3 Month Reversal Effect</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr"/>
+      <c r="F18" s="15" t="inlineStr"/>
+      <c r="G18" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>Gewinnwachstum</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>Profit Growth</t>
+        </is>
+      </c>
+      <c r="D19" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E19" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C20" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C21" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="16" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C22" s="16" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B26" s="12" t="inlineStr">
+        <is>
+          <t>Levermann Checkliste LIGHT</t>
+        </is>
+      </c>
+      <c r="C26" s="12" t="inlineStr"/>
+      <c r="D26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="inlineStr">
+        <is>
+          <t>Eigenkapitalrendite RoE</t>
+        </is>
+      </c>
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>Return on Equity RoE</t>
+        </is>
+      </c>
+      <c r="D27" s="15" t="inlineStr">
+        <is>
+          <t>&gt;20</t>
+        </is>
+      </c>
+      <c r="E27" s="15" t="inlineStr">
+        <is>
+          <t>&lt;10</t>
+        </is>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="G27" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Marge</t>
+        </is>
+      </c>
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>EBIT-Margin</t>
+        </is>
+      </c>
+      <c r="D28" s="15" t="inlineStr">
+        <is>
+          <t>&gt;12</t>
+        </is>
+      </c>
+      <c r="E28" s="15" t="inlineStr">
+        <is>
+          <t>&lt;6</t>
+        </is>
+      </c>
+      <c r="F28" s="15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="14" t="inlineStr">
+        <is>
+          <t>KGV 5 Jahre Mittel</t>
+        </is>
+      </c>
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>P/E-Ratio Actual</t>
+        </is>
+      </c>
+      <c r="D29" s="15" t="inlineStr">
+        <is>
+          <t>&lt;12</t>
+        </is>
+      </c>
+      <c r="E29" s="15" t="inlineStr">
+        <is>
+          <t>&gt;16</t>
+        </is>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G29" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B30" s="14" t="inlineStr">
+        <is>
+          <t>Reaktion auf Quartalszahlen</t>
+        </is>
+      </c>
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>Reaction to quarter numbers</t>
+        </is>
+      </c>
+      <c r="D30" s="15" t="inlineStr">
+        <is>
+          <t>&gt;1</t>
+        </is>
+      </c>
+      <c r="E30" s="15" t="inlineStr">
+        <is>
+          <t>&lt;-1</t>
+        </is>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G30" s="15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="14" t="inlineStr">
+        <is>
+          <t>Kurs Heute vs. Kurs 6M</t>
+        </is>
+      </c>
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>Price Change for 6 month</t>
+        </is>
+      </c>
+      <c r="D31" s="15" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="E31" s="15" t="inlineStr">
+        <is>
+          <t>&lt;5</t>
+        </is>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>-24.74</v>
+      </c>
+      <c r="G31" s="15" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="C32" s="16" t="inlineStr">
+        <is>
+          <t>Possible Sell</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="C33" s="16" t="inlineStr">
+        <is>
+          <t>SmallCap</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="16" t="inlineStr">
+        <is>
+          <t>Finanzwert</t>
+        </is>
+      </c>
+      <c r="C34" s="16" t="inlineStr">
+        <is>
+          <t>Financial Stock</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
